--- a/tsuchiya/20181108機械学習パターン.xlsx
+++ b/tsuchiya/20181108機械学習パターン.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000011162223\Desktop\整理\トップSE研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oracle\team\tsuchiya\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>■パターン名</t>
     <rPh sb="5" eb="6">
@@ -417,6 +417,9 @@
       <t>を推奨している。</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/takechanman1228/items/c7f23873c087630bab18</t>
   </si>
 </sst>
 </file>
@@ -692,41 +695,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,8 +1132,8 @@
   </sheetPr>
   <dimension ref="B2:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1392,234 +1395,234 @@
       </c>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9" t="s">
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="10"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="13"/>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="15" t="s">
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="16"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="9"/>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="15" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="16"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="9"/>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="15" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="16"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="9"/>
     </row>
     <row r="86" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="15" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="16"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="9"/>
     </row>
     <row r="87" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="15" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="16"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="9"/>
     </row>
     <row r="88" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="15" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="16"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="9"/>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="15" t="s">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="16"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="9"/>
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="15" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="16"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="9"/>
     </row>
     <row r="91" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="17" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="18"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="11"/>
     </row>
     <row r="93" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C93" s="1" t="s">
@@ -1641,31 +1644,36 @@
         <v>60</v>
       </c>
     </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="114" spans="3:3" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C114" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
     <mergeCell ref="H88:S88"/>
     <mergeCell ref="H89:S89"/>
     <mergeCell ref="H90:S90"/>
     <mergeCell ref="H91:S91"/>
     <mergeCell ref="H82:S82"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
     <mergeCell ref="H83:S83"/>
     <mergeCell ref="H84:S84"/>
     <mergeCell ref="H85:S85"/>
     <mergeCell ref="H86:S86"/>
     <mergeCell ref="H87:S87"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
